--- a/addressbook-web-tests/addressbook-web-tests/contacts.xlsx
+++ b/addressbook-web-tests/addressbook-web-tests/contacts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\Futuristico\source\Repos\OlgaKr\csharp_training\addressbook-web-tests\adddressbook-test-data-generators\bin\Debug\netcoreapp3.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B6E594F-50BE-43AA-A5E3-469CC508C983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1F98578-1FF2-408D-9784-6D39C91BB0F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3696" yWindow="3432" windowWidth="17280" windowHeight="9072" xr2:uid="{9A186D5C-0DD0-4BF0-A8AE-13E764AA6230}"/>
+    <workbookView xWindow="3696" yWindow="3432" windowWidth="17280" windowHeight="9072" xr2:uid="{76F58E01-2822-4686-ABAD-3CB8C8533A30}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,135 +34,153 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
-  <si>
-    <t>"N4^[L4O29</t>
-  </si>
-  <si>
-    <t>S-8U3)&gt;X=</t>
-  </si>
-  <si>
-    <t>GX</t>
-  </si>
-  <si>
-    <t>5!</t>
-  </si>
-  <si>
-    <t>CZ:;-E1\!</t>
-  </si>
-  <si>
-    <t>M?&lt;^&gt;4WD</t>
-  </si>
-  <si>
-    <t>L+-)6IQ</t>
-  </si>
-  <si>
-    <t>M%8#L8,</t>
-  </si>
-  <si>
-    <t>_@FH</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>Q7C\P4608M</t>
-  </si>
-  <si>
-    <t>(K+</t>
-  </si>
-  <si>
-    <t>%DU</t>
-  </si>
-  <si>
-    <t>/\IO!'</t>
-  </si>
-  <si>
-    <t>F?T</t>
-  </si>
-  <si>
-    <t>\DT</t>
-  </si>
-  <si>
-    <t>%&gt;+K 6*)H</t>
-  </si>
-  <si>
-    <t>6(TLN;"</t>
-  </si>
-  <si>
-    <t>CI5&gt;\*V@</t>
-  </si>
-  <si>
-    <t>#(@8R&lt;&gt;G</t>
-  </si>
-  <si>
-    <t>_=ZQ9.)</t>
-  </si>
-  <si>
-    <t>ZYT.&amp;S"`</t>
-  </si>
-  <si>
-    <t>EG</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> U@E&amp;</t>
-  </si>
-  <si>
-    <t>L6%[A)</t>
-  </si>
-  <si>
-    <t>5DB&lt;\@W#W2</t>
-  </si>
-  <si>
-    <t>1/Q1Y 1</t>
-  </si>
-  <si>
-    <t>U</t>
-  </si>
-  <si>
-    <t>$4I_RZH&amp;3</t>
-  </si>
-  <si>
-    <t>X%*LG#+F</t>
-  </si>
-  <si>
-    <t>^=OT2</t>
-  </si>
-  <si>
-    <t>)S;=%KG%K</t>
-  </si>
-  <si>
-    <t>DPB4:D\</t>
-  </si>
-  <si>
-    <t>X,%%</t>
-  </si>
-  <si>
-    <t>VUJ9&amp;WZ</t>
-  </si>
-  <si>
-    <t>@#</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ? </t>
-  </si>
-  <si>
-    <t>3YKQ+</t>
-  </si>
-  <si>
-    <t>H3'</t>
-  </si>
-  <si>
-    <t>BN8:</t>
-  </si>
-  <si>
-    <t>#OPF/!.</t>
-  </si>
-  <si>
-    <t>TR:1?T'K10</t>
-  </si>
-  <si>
-    <t>G,G</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
+  <si>
+    <t>FN : ^</t>
+  </si>
+  <si>
+    <t>LN : ^J</t>
+  </si>
+  <si>
+    <t>Company: qsQkb</t>
+  </si>
+  <si>
+    <t>Address: a</t>
+  </si>
+  <si>
+    <t>MN: _huz</t>
+  </si>
+  <si>
+    <t>NN: ?</t>
+  </si>
+  <si>
+    <t>Title: q`&gt;</t>
+  </si>
+  <si>
+    <t>+38(097)-lYq</t>
+  </si>
+  <si>
+    <t>+38(097)-RTsM</t>
+  </si>
+  <si>
+    <t>+38(097)-a`BYo</t>
+  </si>
+  <si>
+    <t>FN : Atn</t>
+  </si>
+  <si>
+    <t>LN : _`</t>
+  </si>
+  <si>
+    <t>Company: A</t>
+  </si>
+  <si>
+    <t>Address: hoZ_B</t>
+  </si>
+  <si>
+    <t>MN: U}W</t>
+  </si>
+  <si>
+    <t>NN: ]koB]</t>
+  </si>
+  <si>
+    <t>Title: ]\</t>
+  </si>
+  <si>
+    <t>+38(097)-R~d</t>
+  </si>
+  <si>
+    <t>+38(097)-Jc</t>
+  </si>
+  <si>
+    <t>+38(097)-pAJ_</t>
+  </si>
+  <si>
+    <t>FN : o?Yr</t>
+  </si>
+  <si>
+    <t>LN : e</t>
+  </si>
+  <si>
+    <t>Company: b</t>
+  </si>
+  <si>
+    <t>Address: [</t>
+  </si>
+  <si>
+    <t>MN: ZPx</t>
+  </si>
+  <si>
+    <t>NN: p</t>
+  </si>
+  <si>
+    <t>Title: v</t>
+  </si>
+  <si>
+    <t>+38(097)-</t>
+  </si>
+  <si>
+    <t>+38(097)-Tp</t>
+  </si>
+  <si>
+    <t>FN : CxhC</t>
+  </si>
+  <si>
+    <t>LN : Rpx}</t>
+  </si>
+  <si>
+    <t>Company: KxP</t>
+  </si>
+  <si>
+    <t>Address: {nh</t>
+  </si>
+  <si>
+    <t>MN: E</t>
+  </si>
+  <si>
+    <t>NN: y</t>
+  </si>
+  <si>
+    <t>Title: jj&gt;pT</t>
+  </si>
+  <si>
+    <t>+38(097)-{[</t>
+  </si>
+  <si>
+    <t>+38(097)-Oc</t>
+  </si>
+  <si>
+    <t>+38(097)-W|Ek</t>
+  </si>
+  <si>
+    <t>FN : pq\d</t>
+  </si>
+  <si>
+    <t>LN : bFdhF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Company: </t>
+  </si>
+  <si>
+    <t>Address: JMS{</t>
+  </si>
+  <si>
+    <t>MN: }Wo`[</t>
+  </si>
+  <si>
+    <t>NN: @N</t>
+  </si>
+  <si>
+    <t>Title: ]C|</t>
+  </si>
+  <si>
+    <t>+38(097)-{I\L</t>
+  </si>
+  <si>
+    <t>+38(097)-FaS</t>
+  </si>
+  <si>
+    <t>+38(097)-FwJk</t>
   </si>
 </sst>
 </file>
@@ -514,7 +532,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDFE87DD-78CC-434A-BC8A-4E5B4CED1DCF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F96F3BF2-6B88-47B4-944C-E2314752E3DC}">
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -534,133 +552,151 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3">
-        <v>8</v>
+        <v>26</v>
+      </c>
+      <c r="H3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" t="s">
+        <v>27</v>
       </c>
       <c r="J3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H4" t="s">
-        <v>32</v>
+        <v>36</v>
+      </c>
+      <c r="I4" t="s">
+        <v>37</v>
       </c>
       <c r="J4" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D5" t="s">
-        <v>37</v>
+        <v>42</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G5" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H5" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="I5" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="J5" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
